--- a/data/spec2.xlsx
+++ b/data/spec2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S71369\Desktop\2022專案\產學合作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Desktop/fintech/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366113F4-C44E-1B4E-8A8E-C42D282DE38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13560" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="資料規格" sheetId="1" r:id="rId1"/>
@@ -376,107 +377,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>DEFAULT_TAGS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通戶開戶數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT_OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用戶開戶數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY_LAUNDERING_TAG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似洗錢註記</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPT_AMOUNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融資總餘額-萬元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STK_AMOUNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融券總餘額-萬元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOT_AMOUNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單日買賣最高額度-萬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUT_OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期貨市場開戶數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLB_OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借貸款項契約數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_TRADE_OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>現股當沖開戶數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLUMN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLUMN_DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>分公司代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT_TAGS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>違約</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_OPEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通戶開戶數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT_OPEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用戶開戶數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONEY_LAUNDERING_TAG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似洗錢註記</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPT_AMOUNT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>融資總餘額-萬元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STK_AMOUNT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>融券總餘額-萬元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOT_AMOUNT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單日買賣最高額度-萬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUT_OPEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期貨市場開戶數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NLB_OPEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>借貸款項契約數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D_TRADE_OPEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>現股當沖開戶數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN_DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -490,7 +490,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -505,7 +505,7 @@
     <font>
       <sz val="12"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -599,7 +599,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -876,27 +876,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -911,7 +911,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -926,7 +926,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -973,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -1246,27 +1246,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="10" t="s">
         <v>77</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="10" t="s">
         <v>78</v>
       </c>
@@ -1315,28 +1315,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18">
       <c r="A1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -1344,92 +1344,92 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
